--- a/simple1.xlsx
+++ b/simple1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Staff No</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Fong Zu Rong</t>
+  </si>
+  <si>
+    <t>wefwefwefw</t>
+  </si>
+  <si>
+    <t>08/22/2023 04:07:15 PM</t>
   </si>
 </sst>
 </file>
@@ -498,6 +504,12 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/simple1.xlsx
+++ b/simple1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Staff" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -67,10 +67,10 @@
     <t>Fong Zu Rong</t>
   </si>
   <si>
-    <t>wefwefwefw</t>
-  </si>
-  <si>
-    <t>08/22/2023 04:07:15 PM</t>
+    <t>Poekoas</t>
+  </si>
+  <si>
+    <t>08/22/2023 04:15:53 PM</t>
   </si>
 </sst>
 </file>
